--- a/Data/testfeature.xlsx
+++ b/Data/testfeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andywang/Desktop/Learning Behavior - Aliens/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B20C6-9EB3-7542-A8D6-7ACE6D0ACF07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9FC11-6ECD-8A4B-8246-6B02BC0C563B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26120" windowHeight="15120" xr2:uid="{31B15335-60A2-7A4D-B186-5E28567BB641}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Body</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Color</t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B05638-F61B-814C-8F94-60FDC5013939}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +463,7 @@
     <col min="2" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -495,10 +498,13 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -533,10 +539,13 @@
         <v>2</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -571,10 +580,13 @@
         <v>3</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -609,6 +621,9 @@
         <v>3</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>

--- a/Data/testfeature.xlsx
+++ b/Data/testfeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andywang/Desktop/Learning Behavior - Aliens/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9FC11-6ECD-8A4B-8246-6B02BC0C563B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F47FA-1AE2-784A-B36B-DE0FE1E10A7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26120" windowHeight="15120" xr2:uid="{31B15335-60A2-7A4D-B186-5E28567BB641}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Body</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Color</t>
-  </si>
-  <si>
-    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -451,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B05638-F61B-814C-8F94-60FDC5013939}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,7 +460,7 @@
     <col min="2" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -498,13 +495,10 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -539,13 +533,10 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -580,13 +571,10 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -621,10 +609,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Data/testfeature.xlsx
+++ b/Data/testfeature.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andywang/Desktop/Learning Behavior - Aliens/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andywang/Desktop/Learning Behavior/Aliens/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F47FA-1AE2-784A-B36B-DE0FE1E10A7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA67D201-EE9E-4B41-9236-84E991BD62E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26120" windowHeight="15120" xr2:uid="{31B15335-60A2-7A4D-B186-5E28567BB641}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,10 +509,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>200</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -588,7 +588,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>300</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
